--- a/curation/draft/package13/R13_BC_SDTM_QRS_ECOG.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_ECOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F422A-96BE-4D3B-91DB-CE1E3CD8EC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C77FCF-4516-4E20-8DD7-BBCD335FC3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_ECOG" sheetId="1" r:id="rId1"/>
@@ -443,9 +443,6 @@
     <t>ECOG1-Performance Status; ECOG101; ECOG - Performance Status</t>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>Eastern Cooperative Oncology Group (ECOG) Performance status.</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>QRS; Clinical or Research Assessment Classification; Eastern Cooperative Oncology Group Performance Status Clinical Classification; ECOG; ECOG1; ECOG Clinical Classification Question</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
   </si>
 </sst>
 </file>
@@ -903,9 +903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,10 +993,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>107</v>
@@ -1008,12 +1008,12 @@
         <v>59</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>101</v>
@@ -1043,12 +1043,12 @@
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>108</v>
@@ -1078,25 +1078,25 @@
         <v>107</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>109</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>21</v>
@@ -1111,12 +1111,12 @@
         <v>22</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>108</v>
@@ -1131,25 +1131,25 @@
         <v>107</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>109</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J6" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>20</v>
@@ -1164,12 +1164,12 @@
         <v>55</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>108</v>
@@ -1184,25 +1184,25 @@
         <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>109</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>52</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>108</v>
@@ -1237,25 +1237,25 @@
         <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>109</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="J8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>23</v>
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC098C6-DE31-49FE-8D92-8AEBD89F8EC9}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>94</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
